--- a/src/test/resources/TestData/LoginData.xlsx
+++ b/src/test/resources/TestData/LoginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ECLIPSE_PLAYGROUND\ParallelAutomation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0E28F2-1BDF-4D79-8B56-56E8BED935D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82536D4-9B72-4349-9F92-368BAE1A9400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{23F32170-2EC1-4B2B-8096-9B59B3621FA5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{23F32170-2EC1-4B2B-8096-9B59B3621FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -167,9 +167,6 @@
     <t>Italiano</t>
   </si>
   <si>
-    <t>it.wikipedia.org</t>
-  </si>
-  <si>
     <t>日本語</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>pl.wikipedia.org</t>
+  </si>
+  <si>
+    <t>it.m.wikipedia.org</t>
   </si>
 </sst>
 </file>
@@ -726,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0EBDE5-6984-42CA-B5E7-D5C84AA1051C}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23781644-7715-4839-84F0-5003163AD7B7}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,44 +828,44 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/LoginData.xlsx
+++ b/src/test/resources/TestData/LoginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ECLIPSE_PLAYGROUND\ParallelAutomation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82536D4-9B72-4349-9F92-368BAE1A9400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33F9045-0E53-4425-8EE8-FF3E2779E57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{23F32170-2EC1-4B2B-8096-9B59B3621FA5}"/>
+    <workbookView xWindow="34215" yWindow="4710" windowWidth="21600" windowHeight="11835" activeTab="3" xr2:uid="{23F32170-2EC1-4B2B-8096-9B59B3621FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
     <t>pl.wikipedia.org</t>
   </si>
   <si>
-    <t>it.m.wikipedia.org</t>
+    <t>it.wikipedia.org</t>
   </si>
 </sst>
 </file>
@@ -828,7 +828,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
